--- a/outputs-HGR-r202/test-g__Ligilactobacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Ligilactobacillus_split_pruned.xlsx
@@ -14,12 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>even_MAG-GUT23295.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT33836.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34245.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34540.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34945.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57416.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7285.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89050.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89164.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89244.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89255.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89282.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89747.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89772.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89816.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89833.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89851.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90090.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90143.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90408.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90442.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90615.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90683.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90694.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90996.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91012.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91110.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91793.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9688.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9692.fa</t>
   </si>
   <si>
     <t>1-s__Ligilactobacillus animalis</t>
@@ -82,10 +169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="27.5703125" customWidth="true"/>
     <col min="3" max="3" width="27.42578125" customWidth="true"/>
     <col min="4" max="4" width="26.85546875" customWidth="true"/>
@@ -98,19 +185,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -133,6 +220,586 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.17320356954542571</v>
+      </c>
+      <c r="C3">
+        <v>0.67323469579591144</v>
+      </c>
+      <c r="D3">
+        <v>0.081870599973820929</v>
+      </c>
+      <c r="E3">
+        <v>0.071691134684841853</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.17402955245665988</v>
+      </c>
+      <c r="C4">
+        <v>0.673322700097579</v>
+      </c>
+      <c r="D4">
+        <v>0.082361253562661413</v>
+      </c>
+      <c r="E4">
+        <v>0.07028649388309971</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.03941368559718348</v>
+      </c>
+      <c r="C5">
+        <v>0.30378950637634511</v>
+      </c>
+      <c r="D5">
+        <v>0.63967955123784737</v>
+      </c>
+      <c r="E5">
+        <v>0.017117256788624045</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.039039573415539437</v>
+      </c>
+      <c r="C6">
+        <v>0.30722377218772073</v>
+      </c>
+      <c r="D6">
+        <v>0.6373007414844617</v>
+      </c>
+      <c r="E6">
+        <v>0.016435912912278153</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.17115710682880672</v>
+      </c>
+      <c r="C7">
+        <v>0.6916343664718797</v>
+      </c>
+      <c r="D7">
+        <v>0.08075254256378181</v>
+      </c>
+      <c r="E7">
+        <v>0.056455984135531725</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.077388153904402707</v>
+      </c>
+      <c r="C8">
+        <v>0.41447951576881903</v>
+      </c>
+      <c r="D8">
+        <v>2.2784383797415583e-14</v>
+      </c>
+      <c r="E8">
+        <v>0.50813233032675553</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C9">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D9">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E9">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C10">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D10">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E10">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.21551170082827337</v>
+      </c>
+      <c r="C11">
+        <v>0.71466570940977403</v>
+      </c>
+      <c r="D11">
+        <v>5.9975935945153063e-14</v>
+      </c>
+      <c r="E11">
+        <v>0.069822589761892553</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.079088745702094967</v>
+      </c>
+      <c r="C12">
+        <v>0.43136835988661221</v>
+      </c>
+      <c r="D12">
+        <v>2.2768571642359024e-14</v>
+      </c>
+      <c r="E12">
+        <v>0.48954289441127002</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.074511285815477432</v>
+      </c>
+      <c r="C13">
+        <v>0.39647569167790386</v>
+      </c>
+      <c r="D13">
+        <v>2.2804116135472811e-14</v>
+      </c>
+      <c r="E13">
+        <v>0.52901302250659588</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.058912751391854541</v>
+      </c>
+      <c r="C14">
+        <v>0.35604412867766971</v>
+      </c>
+      <c r="D14">
+        <v>2.2881684987821337e-14</v>
+      </c>
+      <c r="E14">
+        <v>0.58504311993045277</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.22150469631613384</v>
+      </c>
+      <c r="C15">
+        <v>0.70435666407788633</v>
+      </c>
+      <c r="D15">
+        <v>6.4103090514108703e-14</v>
+      </c>
+      <c r="E15">
+        <v>0.074138639605915768</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C16">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D16">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E16">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.074650194902233138</v>
+      </c>
+      <c r="C17">
+        <v>0.39890099882140656</v>
+      </c>
+      <c r="D17">
+        <v>2.2805537007510778e-14</v>
+      </c>
+      <c r="E17">
+        <v>0.5264488062763375</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C18">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D18">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E18">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.086172734328217065</v>
+      </c>
+      <c r="C19">
+        <v>0.46195745600202642</v>
+      </c>
+      <c r="D19">
+        <v>2.2700419530486935e-14</v>
+      </c>
+      <c r="E19">
+        <v>0.45186980966973395</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C20">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D20">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E20">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C21">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D21">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E21">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.21551170082827337</v>
+      </c>
+      <c r="C22">
+        <v>0.71466570940977403</v>
+      </c>
+      <c r="D22">
+        <v>5.9975935945153063e-14</v>
+      </c>
+      <c r="E22">
+        <v>0.069822589761892553</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C23">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D23">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E23">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C24">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D24">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.075660278728428981</v>
+      </c>
+      <c r="C25">
+        <v>0.40693868518444487</v>
+      </c>
+      <c r="D25">
+        <v>2.2797885374191479e-14</v>
+      </c>
+      <c r="E25">
+        <v>0.51740103608710331</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C26">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D26">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E26">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.21981050472250682</v>
+      </c>
+      <c r="C27">
+        <v>0.70568900414319435</v>
+      </c>
+      <c r="D27">
+        <v>6.3076363237010785e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.074500491134235805</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.074650194902233138</v>
+      </c>
+      <c r="C28">
+        <v>0.39890099882140656</v>
+      </c>
+      <c r="D28">
+        <v>2.2805537007510778e-14</v>
+      </c>
+      <c r="E28">
+        <v>0.5264488062763375</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.22292952205730759</v>
+      </c>
+      <c r="C29">
+        <v>0.70497667241430662</v>
+      </c>
+      <c r="D29">
+        <v>6.4969139640621771e-14</v>
+      </c>
+      <c r="E29">
+        <v>0.07209380552832069</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.038953694747205309</v>
+      </c>
+      <c r="C30">
+        <v>0.31489602667408445</v>
+      </c>
+      <c r="D30">
+        <v>0.63452585172582865</v>
+      </c>
+      <c r="E30">
+        <v>0.011624426852881606</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.17644449493305606</v>
+      </c>
+      <c r="C31">
+        <v>0.66638371760006554</v>
+      </c>
+      <c r="D31">
+        <v>0.083899513731453962</v>
+      </c>
+      <c r="E31">
+        <v>0.073272273735424498</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Ligilactobacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Ligilactobacillus_split_pruned.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Row</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT33836.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34245.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT7285.fa</t>
@@ -103,7 +109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -119,19 +125,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -139,19 +145,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.077388153904402707</v>
+        <v>0.17320356954542571</v>
       </c>
       <c r="C2">
-        <v>0.41447951576881903</v>
+        <v>0.67323469579591144</v>
       </c>
       <c r="D2">
-        <v>2.2784383797415583e-14</v>
+        <v>0.081870599973820929</v>
       </c>
       <c r="E2">
-        <v>0.50813233032675553</v>
+        <v>0.071691134684841853</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -159,19 +165,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.079088745702094967</v>
+        <v>0.17402955245665988</v>
       </c>
       <c r="C3">
-        <v>0.43136835988661221</v>
+        <v>0.673322700097579</v>
       </c>
       <c r="D3">
-        <v>2.2768571642359024e-14</v>
+        <v>0.082361253562661413</v>
       </c>
       <c r="E3">
-        <v>0.48954289441127002</v>
+        <v>0.07028649388309971</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -179,16 +185,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.074511285815477432</v>
+        <v>0.077388153904402707</v>
       </c>
       <c r="C4">
-        <v>0.39647569167790386</v>
+        <v>0.41447951576881903</v>
       </c>
       <c r="D4">
-        <v>2.2804116135472811e-14</v>
+        <v>2.2784383797415583e-14</v>
       </c>
       <c r="E4">
-        <v>0.52901302250659588</v>
+        <v>0.50813233032675553</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -199,16 +205,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.058912751391854541</v>
+        <v>0.079088745702094967</v>
       </c>
       <c r="C5">
-        <v>0.35604412867766971</v>
+        <v>0.43136835988661221</v>
       </c>
       <c r="D5">
-        <v>2.2881684987821337e-14</v>
+        <v>2.2768571642359024e-14</v>
       </c>
       <c r="E5">
-        <v>0.58504311993045277</v>
+        <v>0.48954289441127002</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -219,16 +225,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.074650194902233138</v>
+        <v>0.074511285815477432</v>
       </c>
       <c r="C6">
-        <v>0.39890099882140656</v>
+        <v>0.39647569167790386</v>
       </c>
       <c r="D6">
-        <v>2.2805537007510778e-14</v>
+        <v>2.2804116135472811e-14</v>
       </c>
       <c r="E6">
-        <v>0.5264488062763375</v>
+        <v>0.52901302250659588</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -239,19 +245,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.086172734328217065</v>
+        <v>0.058912751391854541</v>
       </c>
       <c r="C7">
-        <v>0.46195745600202642</v>
+        <v>0.35604412867766971</v>
       </c>
       <c r="D7">
-        <v>2.2700419530486935e-14</v>
+        <v>2.2881684987821337e-14</v>
       </c>
       <c r="E7">
-        <v>0.45186980966973395</v>
+        <v>0.58504311993045277</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -259,16 +265,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.075660278728428981</v>
+        <v>0.074650194902233138</v>
       </c>
       <c r="C8">
-        <v>0.40693868518444487</v>
+        <v>0.39890099882140656</v>
       </c>
       <c r="D8">
-        <v>2.2797885374191479e-14</v>
+        <v>2.2805537007510778e-14</v>
       </c>
       <c r="E8">
-        <v>0.51740103608710331</v>
+        <v>0.5264488062763375</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -279,18 +285,58 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>0.086172734328217065</v>
+      </c>
+      <c r="C9">
+        <v>0.46195745600202642</v>
+      </c>
+      <c r="D9">
+        <v>2.2700419530486935e-14</v>
+      </c>
+      <c r="E9">
+        <v>0.45186980966973395</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.075660278728428981</v>
+      </c>
+      <c r="C10">
+        <v>0.40693868518444487</v>
+      </c>
+      <c r="D10">
+        <v>2.2797885374191479e-14</v>
+      </c>
+      <c r="E10">
+        <v>0.51740103608710331</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>0.074650194902233138</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>0.39890099882140656</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>2.2805537007510778e-14</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>0.5264488062763375</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>4</v>
       </c>
     </row>
